--- a/data/pca/factorExposure/factorExposure_2016-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009491398585202503</v>
+        <v>0.01313618504980007</v>
       </c>
       <c r="C2">
-        <v>-0.055568834742943</v>
+        <v>0.04286880001274809</v>
       </c>
       <c r="D2">
-        <v>0.04015028704855221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06228609072100845</v>
+      </c>
+      <c r="E2">
+        <v>0.07098954487637449</v>
+      </c>
+      <c r="F2">
+        <v>0.06714390978219545</v>
+      </c>
+      <c r="G2">
+        <v>-0.0342905069274302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05287018742195233</v>
+        <v>0.02910770239564764</v>
       </c>
       <c r="C3">
-        <v>-0.0972911792681454</v>
+        <v>0.07874795040548244</v>
       </c>
       <c r="D3">
-        <v>0.1070180932235361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08987806065982132</v>
+      </c>
+      <c r="E3">
+        <v>0.07125419623313374</v>
+      </c>
+      <c r="F3">
+        <v>-0.007360852503334236</v>
+      </c>
+      <c r="G3">
+        <v>0.0404756551173391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06522360803002658</v>
+        <v>0.05761022006836326</v>
       </c>
       <c r="C4">
-        <v>-0.0602834166702945</v>
+        <v>0.0663911274009744</v>
       </c>
       <c r="D4">
-        <v>0.03072927656953987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05858429000202276</v>
+      </c>
+      <c r="E4">
+        <v>0.07178456591363712</v>
+      </c>
+      <c r="F4">
+        <v>0.07558188657082178</v>
+      </c>
+      <c r="G4">
+        <v>0.04021658086920797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03969997877844522</v>
+        <v>0.0353027725770872</v>
       </c>
       <c r="C6">
-        <v>-0.03909478264509623</v>
+        <v>0.03212961027124123</v>
       </c>
       <c r="D6">
-        <v>0.03358296819122875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06214296251086712</v>
+      </c>
+      <c r="E6">
+        <v>0.07524617259809305</v>
+      </c>
+      <c r="F6">
+        <v>0.05631407788096426</v>
+      </c>
+      <c r="G6">
+        <v>0.02390590635693236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02191287844179503</v>
+        <v>0.01840356538317484</v>
       </c>
       <c r="C7">
-        <v>-0.04392528859368233</v>
+        <v>0.03884069814811465</v>
       </c>
       <c r="D7">
-        <v>-0.005284051584452009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03650793431826215</v>
+      </c>
+      <c r="E7">
+        <v>0.05059459004256903</v>
+      </c>
+      <c r="F7">
+        <v>0.09856137477869466</v>
+      </c>
+      <c r="G7">
+        <v>0.01019889713891551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002678246188931084</v>
+        <v>0.003122004127033806</v>
       </c>
       <c r="C8">
-        <v>-0.02793332440134936</v>
+        <v>0.02899433754885546</v>
       </c>
       <c r="D8">
-        <v>0.03027638272689872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03037145229714245</v>
+      </c>
+      <c r="E8">
+        <v>0.05136887534289918</v>
+      </c>
+      <c r="F8">
+        <v>0.03645098276457462</v>
+      </c>
+      <c r="G8">
+        <v>0.01014187921044395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03531232611648988</v>
+        <v>0.03633683773856246</v>
       </c>
       <c r="C9">
-        <v>-0.04466046967867927</v>
+        <v>0.05246283430465053</v>
       </c>
       <c r="D9">
-        <v>0.01637071135906823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04202966880001116</v>
+      </c>
+      <c r="E9">
+        <v>0.05899014551219122</v>
+      </c>
+      <c r="F9">
+        <v>0.08349941872203701</v>
+      </c>
+      <c r="G9">
+        <v>0.0253515468184047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07295421830683896</v>
+        <v>0.100419931986526</v>
       </c>
       <c r="C10">
-        <v>0.1979433356829216</v>
+        <v>-0.1957125422977494</v>
       </c>
       <c r="D10">
-        <v>-0.007815516511600056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005954783371643502</v>
+      </c>
+      <c r="E10">
+        <v>0.04418275336054402</v>
+      </c>
+      <c r="F10">
+        <v>0.03851914891059118</v>
+      </c>
+      <c r="G10">
+        <v>0.009495285432893019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04123813084438604</v>
+        <v>0.03626800304614756</v>
       </c>
       <c r="C11">
-        <v>-0.05511830258018841</v>
+        <v>0.05171225578918814</v>
       </c>
       <c r="D11">
-        <v>0.01418196372317185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03346405069526062</v>
+      </c>
+      <c r="E11">
+        <v>0.01758084183230002</v>
+      </c>
+      <c r="F11">
+        <v>0.06434114228750097</v>
+      </c>
+      <c r="G11">
+        <v>0.01671243041887815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04082427406613497</v>
+        <v>0.03704415867420634</v>
       </c>
       <c r="C12">
-        <v>-0.04899265715578165</v>
+        <v>0.04751354793717814</v>
       </c>
       <c r="D12">
-        <v>0.002915617481087917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02499604629423674</v>
+      </c>
+      <c r="E12">
+        <v>0.02511745521230262</v>
+      </c>
+      <c r="F12">
+        <v>0.0658959909087463</v>
+      </c>
+      <c r="G12">
+        <v>0.01351599188524505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0157416888126897</v>
+        <v>0.01235009509873247</v>
       </c>
       <c r="C13">
-        <v>-0.05173361896197944</v>
+        <v>0.04416919356040078</v>
       </c>
       <c r="D13">
-        <v>0.02299027232434472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0588694839539529</v>
+      </c>
+      <c r="E13">
+        <v>0.08505795372564441</v>
+      </c>
+      <c r="F13">
+        <v>0.09714238311485987</v>
+      </c>
+      <c r="G13">
+        <v>0.02234116904438472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007513747754200665</v>
+        <v>0.004629164934096907</v>
       </c>
       <c r="C14">
-        <v>-0.03534663873888325</v>
+        <v>0.03236397457352652</v>
       </c>
       <c r="D14">
-        <v>-0.01373007914370366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02507255743459723</v>
+      </c>
+      <c r="E14">
+        <v>0.03997802868891733</v>
+      </c>
+      <c r="F14">
+        <v>0.09515099765644916</v>
+      </c>
+      <c r="G14">
+        <v>-0.004310398638140855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006999502808506072</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005539591033344021</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006399686064249499</v>
+      </c>
+      <c r="E15">
+        <v>0.001925571002161918</v>
+      </c>
+      <c r="F15">
+        <v>0.003822027631045443</v>
+      </c>
+      <c r="G15">
+        <v>0.0003322793143810437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03764200654527886</v>
+        <v>0.03374636493978089</v>
       </c>
       <c r="C16">
-        <v>-0.04732404667284399</v>
+        <v>0.04566581004798233</v>
       </c>
       <c r="D16">
-        <v>0.008563417328638937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02651522033262194</v>
+      </c>
+      <c r="E16">
+        <v>0.03191389238304563</v>
+      </c>
+      <c r="F16">
+        <v>0.06680305776410735</v>
+      </c>
+      <c r="G16">
+        <v>0.003055438723476295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02377416280820653</v>
+        <v>0.01623812394270211</v>
       </c>
       <c r="C19">
-        <v>-0.06534897580674497</v>
+        <v>0.05090108056932705</v>
       </c>
       <c r="D19">
-        <v>0.07871400317432242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08913013878525769</v>
+      </c>
+      <c r="E19">
+        <v>0.101215951928338</v>
+      </c>
+      <c r="F19">
+        <v>0.07316655897736439</v>
+      </c>
+      <c r="G19">
+        <v>-0.02062729238601059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01702353895171942</v>
+        <v>0.01335346881504703</v>
       </c>
       <c r="C20">
-        <v>-0.04519167513060383</v>
+        <v>0.04096251948692022</v>
       </c>
       <c r="D20">
-        <v>0.01757774341157605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03579781196377834</v>
+      </c>
+      <c r="E20">
+        <v>0.07027221816229758</v>
+      </c>
+      <c r="F20">
+        <v>0.07791414305232566</v>
+      </c>
+      <c r="G20">
+        <v>0.00705437281238404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01202230350046853</v>
+        <v>0.009049129165521625</v>
       </c>
       <c r="C21">
-        <v>-0.0496261662699552</v>
+        <v>0.04577007544698089</v>
       </c>
       <c r="D21">
-        <v>0.03912074035654954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0655227318649402</v>
+      </c>
+      <c r="E21">
+        <v>0.0994421914146683</v>
+      </c>
+      <c r="F21">
+        <v>0.1206668124779918</v>
+      </c>
+      <c r="G21">
+        <v>0.01124017371559103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001938207806315022</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02381006710530592</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03603820434058506</v>
+      </c>
+      <c r="E22">
+        <v>0.02907683506628459</v>
+      </c>
+      <c r="F22">
+        <v>0.01432481254808093</v>
+      </c>
+      <c r="G22">
+        <v>0.03940163573036768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002004275589169447</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02394818757849617</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03569221398409533</v>
+      </c>
+      <c r="E23">
+        <v>0.0293310893829321</v>
+      </c>
+      <c r="F23">
+        <v>0.01412801824817547</v>
+      </c>
+      <c r="G23">
+        <v>0.03959801153198443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03330726510899903</v>
+        <v>0.03345376428252103</v>
       </c>
       <c r="C24">
-        <v>-0.05113262808938993</v>
+        <v>0.05365602744903009</v>
       </c>
       <c r="D24">
-        <v>0.007679151301183295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02582249717430891</v>
+      </c>
+      <c r="E24">
+        <v>0.02927836706227224</v>
+      </c>
+      <c r="F24">
+        <v>0.07574505467709196</v>
+      </c>
+      <c r="G24">
+        <v>0.0110392445168537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04706852714032088</v>
+        <v>0.04375844036806163</v>
       </c>
       <c r="C25">
-        <v>-0.06141240867489599</v>
+        <v>0.05712678479076315</v>
       </c>
       <c r="D25">
-        <v>-5.465473901935692e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02434162583706339</v>
+      </c>
+      <c r="E25">
+        <v>0.02399329178899536</v>
+      </c>
+      <c r="F25">
+        <v>0.07718970250605303</v>
+      </c>
+      <c r="G25">
+        <v>0.02801878396135219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0159243923870728</v>
+        <v>0.01377642325668126</v>
       </c>
       <c r="C26">
-        <v>-0.01557121318164444</v>
+        <v>0.01693292356188993</v>
       </c>
       <c r="D26">
-        <v>-0.001144934099157117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02378942702245702</v>
+      </c>
+      <c r="E26">
+        <v>0.04085408003897074</v>
+      </c>
+      <c r="F26">
+        <v>0.06795254344381198</v>
+      </c>
+      <c r="G26">
+        <v>-0.01290539196615081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08515385636374384</v>
+        <v>0.135197271110589</v>
       </c>
       <c r="C28">
-        <v>0.2341405235970143</v>
+        <v>-0.2459005903709278</v>
       </c>
       <c r="D28">
-        <v>-0.006814964331044565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02103593720731844</v>
+      </c>
+      <c r="E28">
+        <v>0.04701108467451807</v>
+      </c>
+      <c r="F28">
+        <v>0.05713808562333084</v>
+      </c>
+      <c r="G28">
+        <v>0.02335881935651831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009014247628802725</v>
+        <v>0.005745197926677913</v>
       </c>
       <c r="C29">
-        <v>-0.02832854220944206</v>
+        <v>0.02759793971711894</v>
       </c>
       <c r="D29">
-        <v>-0.01852246907310074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01896669117960425</v>
+      </c>
+      <c r="E29">
+        <v>0.04009968036139833</v>
+      </c>
+      <c r="F29">
+        <v>0.08852301498764698</v>
+      </c>
+      <c r="G29">
+        <v>0.008048608409385817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.05021655796299596</v>
+        <v>0.04155725374459088</v>
       </c>
       <c r="C30">
-        <v>-0.05999542643813128</v>
+        <v>0.0634039392489761</v>
       </c>
       <c r="D30">
-        <v>0.07557973146183367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1065394754870103</v>
+      </c>
+      <c r="E30">
+        <v>0.06622484622449142</v>
+      </c>
+      <c r="F30">
+        <v>0.09086856270423743</v>
+      </c>
+      <c r="G30">
+        <v>-0.01196089377598361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05429696198057237</v>
+        <v>0.05470313696472522</v>
       </c>
       <c r="C31">
-        <v>-0.0363312558019622</v>
+        <v>0.05606444472712078</v>
       </c>
       <c r="D31">
-        <v>-0.02890861487985026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01316287881843702</v>
+      </c>
+      <c r="E31">
+        <v>0.06047247736187491</v>
+      </c>
+      <c r="F31">
+        <v>0.07065372992611446</v>
+      </c>
+      <c r="G31">
+        <v>0.04933606536927502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003252083777690656</v>
+        <v>0.004856854473568085</v>
       </c>
       <c r="C32">
-        <v>-0.04498411341028746</v>
+        <v>0.03482928187826212</v>
       </c>
       <c r="D32">
-        <v>0.04251640485954758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05087878659593053</v>
+      </c>
+      <c r="E32">
+        <v>0.04197123933978882</v>
+      </c>
+      <c r="F32">
+        <v>0.06343554955109172</v>
+      </c>
+      <c r="G32">
+        <v>-0.00917327785797252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02787412028040398</v>
+        <v>0.02438805112929211</v>
       </c>
       <c r="C33">
-        <v>-0.06162136603291134</v>
+        <v>0.05496893514268506</v>
       </c>
       <c r="D33">
-        <v>0.04449957917686171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07658400767048645</v>
+      </c>
+      <c r="E33">
+        <v>0.07436574118591605</v>
+      </c>
+      <c r="F33">
+        <v>0.1179370699887677</v>
+      </c>
+      <c r="G33">
+        <v>0.0240827653202663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04515088654294336</v>
+        <v>0.0408443946110623</v>
       </c>
       <c r="C34">
-        <v>-0.06601360951484758</v>
+        <v>0.06415645662895</v>
       </c>
       <c r="D34">
-        <v>0.01044081534870894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03355357561860888</v>
+      </c>
+      <c r="E34">
+        <v>0.004402190554123655</v>
+      </c>
+      <c r="F34">
+        <v>0.07808798535505268</v>
+      </c>
+      <c r="G34">
+        <v>0.0130758020181757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0130929371570366</v>
+        <v>0.01301041243997683</v>
       </c>
       <c r="C36">
-        <v>-0.01726190100595254</v>
+        <v>0.01306761092760458</v>
       </c>
       <c r="D36">
-        <v>-0.002708016667197728</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02521460249392355</v>
+      </c>
+      <c r="E36">
+        <v>0.04746352535297929</v>
+      </c>
+      <c r="F36">
+        <v>0.07402529523611687</v>
+      </c>
+      <c r="G36">
+        <v>0.01110222227682101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03128873404316863</v>
+        <v>0.02388780968824014</v>
       </c>
       <c r="C38">
-        <v>-0.02765980355662597</v>
+        <v>0.0252295171482195</v>
       </c>
       <c r="D38">
-        <v>-0.006999245864537762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02528887926257318</v>
+      </c>
+      <c r="E38">
+        <v>0.04638819877007005</v>
+      </c>
+      <c r="F38">
+        <v>0.06265919808660497</v>
+      </c>
+      <c r="G38">
+        <v>0.006181028454590618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04601662937171784</v>
+        <v>0.03926874609368864</v>
       </c>
       <c r="C39">
-        <v>-0.07086682754694756</v>
+        <v>0.0685344164216672</v>
       </c>
       <c r="D39">
-        <v>0.02110079538402447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05213514576233011</v>
+      </c>
+      <c r="E39">
+        <v>0.03459312771292587</v>
+      </c>
+      <c r="F39">
+        <v>0.08686671617134356</v>
+      </c>
+      <c r="G39">
+        <v>-0.01187224718662422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01511208181194214</v>
+        <v>0.01496397872082268</v>
       </c>
       <c r="C40">
-        <v>-0.03985002892083214</v>
+        <v>0.03983600228017525</v>
       </c>
       <c r="D40">
-        <v>0.0354957021196718</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03631079190153506</v>
+      </c>
+      <c r="E40">
+        <v>0.08719737973378737</v>
+      </c>
+      <c r="F40">
+        <v>0.06913710476665093</v>
+      </c>
+      <c r="G40">
+        <v>0.04428113670119719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01685401973364666</v>
+        <v>0.01775937391041543</v>
       </c>
       <c r="C41">
-        <v>-0.009345666483601042</v>
+        <v>0.007378300526446166</v>
       </c>
       <c r="D41">
-        <v>-0.005317325922422515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01273001776828356</v>
+      </c>
+      <c r="E41">
+        <v>0.05044708055442876</v>
+      </c>
+      <c r="F41">
+        <v>0.06291290387899635</v>
+      </c>
+      <c r="G41">
+        <v>0.00429366129463045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0001212677891933877</v>
+        <v>-6.751310036029515e-05</v>
       </c>
       <c r="C42">
-        <v>-0.003093023121686453</v>
+        <v>0.001858259875181709</v>
       </c>
       <c r="D42">
-        <v>-0.00147763149973231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0006889083854924065</v>
+      </c>
+      <c r="E42">
+        <v>-0.003230658304922355</v>
+      </c>
+      <c r="F42">
+        <v>-0.002122307561152836</v>
+      </c>
+      <c r="G42">
+        <v>0.002329996844171193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03643860434393351</v>
+        <v>0.02859578160532761</v>
       </c>
       <c r="C43">
-        <v>-0.02517369625804093</v>
+        <v>0.02205677391522872</v>
       </c>
       <c r="D43">
-        <v>0.01530165245081174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03821342502048571</v>
+      </c>
+      <c r="E43">
+        <v>0.06156211729016734</v>
+      </c>
+      <c r="F43">
+        <v>0.07336813325487233</v>
+      </c>
+      <c r="G43">
+        <v>0.02450179689385821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01768980486858128</v>
+        <v>0.01383175398283632</v>
       </c>
       <c r="C44">
-        <v>-0.059474960503919</v>
+        <v>0.05320762404057883</v>
       </c>
       <c r="D44">
-        <v>0.01771183453577635</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03775677419200742</v>
+      </c>
+      <c r="E44">
+        <v>0.07681021369606195</v>
+      </c>
+      <c r="F44">
+        <v>0.07405092733055572</v>
+      </c>
+      <c r="G44">
+        <v>-0.001555193671776212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.005014617306632358</v>
+        <v>0.007512152273353077</v>
       </c>
       <c r="C46">
-        <v>-0.02383487322223533</v>
+        <v>0.02627563792208243</v>
       </c>
       <c r="D46">
-        <v>-0.02362935242593248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009221695046882987</v>
+      </c>
+      <c r="E46">
+        <v>0.04773652998727779</v>
+      </c>
+      <c r="F46">
+        <v>0.09890573803061162</v>
+      </c>
+      <c r="G46">
+        <v>0.00284573123862561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08424512975502299</v>
+        <v>0.08680008995997882</v>
       </c>
       <c r="C47">
-        <v>-0.06501463345402687</v>
+        <v>0.07986970382419445</v>
       </c>
       <c r="D47">
-        <v>-0.02775457779896355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01947974637921013</v>
+      </c>
+      <c r="E47">
+        <v>0.06439603831382959</v>
+      </c>
+      <c r="F47">
+        <v>0.0719567448196263</v>
+      </c>
+      <c r="G47">
+        <v>0.05267836928459534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01854980787677389</v>
+        <v>0.0157284569187585</v>
       </c>
       <c r="C48">
-        <v>-0.01359299010447146</v>
+        <v>0.01720769348376246</v>
       </c>
       <c r="D48">
-        <v>-0.0151590136700051</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01415207495904636</v>
+      </c>
+      <c r="E48">
+        <v>0.05864942203098095</v>
+      </c>
+      <c r="F48">
+        <v>0.08867677043197719</v>
+      </c>
+      <c r="G48">
+        <v>0.01113808729731277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08210481875873159</v>
+        <v>0.07051300405410539</v>
       </c>
       <c r="C50">
-        <v>-0.07050655882194251</v>
+        <v>0.07239981137452969</v>
       </c>
       <c r="D50">
-        <v>-0.03166038762939175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007033568337415498</v>
+      </c>
+      <c r="E50">
+        <v>0.06632391582895204</v>
+      </c>
+      <c r="F50">
+        <v>0.05706259748744452</v>
+      </c>
+      <c r="G50">
+        <v>0.07258223887152145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01596579144995784</v>
+        <v>0.01054006385882889</v>
       </c>
       <c r="C51">
-        <v>-0.04877160036410438</v>
+        <v>0.03426027949619974</v>
       </c>
       <c r="D51">
-        <v>0.02340462929693002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04820833110605338</v>
+      </c>
+      <c r="E51">
+        <v>0.03874744389452902</v>
+      </c>
+      <c r="F51">
+        <v>0.0772844168847468</v>
+      </c>
+      <c r="G51">
+        <v>-0.01752257621636802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08342769494417597</v>
+        <v>0.09350846811754093</v>
       </c>
       <c r="C53">
-        <v>-0.07138037741106204</v>
+        <v>0.08664237948370408</v>
       </c>
       <c r="D53">
-        <v>-0.03818644266773284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0437680467688707</v>
+      </c>
+      <c r="E53">
+        <v>0.05870739914969984</v>
+      </c>
+      <c r="F53">
+        <v>0.08124779986436055</v>
+      </c>
+      <c r="G53">
+        <v>0.0655615740279257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03113271548980213</v>
+        <v>0.02756697946423881</v>
       </c>
       <c r="C54">
-        <v>-0.02434881703945401</v>
+        <v>0.02584633122916468</v>
       </c>
       <c r="D54">
-        <v>-0.003864045926330665</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02846785309825493</v>
+      </c>
+      <c r="E54">
+        <v>0.04869163264832102</v>
+      </c>
+      <c r="F54">
+        <v>0.09794298684447597</v>
+      </c>
+      <c r="G54">
+        <v>0.0101388789368679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07648178278256985</v>
+        <v>0.08485673705727542</v>
       </c>
       <c r="C55">
-        <v>-0.0550776006858463</v>
+        <v>0.06982255893843793</v>
       </c>
       <c r="D55">
-        <v>-0.04656309371368025</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05039458028356395</v>
+      </c>
+      <c r="E55">
+        <v>0.04627094569921186</v>
+      </c>
+      <c r="F55">
+        <v>0.0577700614009447</v>
+      </c>
+      <c r="G55">
+        <v>0.05324726300607049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1476352618658707</v>
+        <v>0.1464613708039872</v>
       </c>
       <c r="C56">
-        <v>-0.08974872792502472</v>
+        <v>0.1046048561346225</v>
       </c>
       <c r="D56">
-        <v>-0.04850267176627673</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05439892933369408</v>
+      </c>
+      <c r="E56">
+        <v>0.04893486815547286</v>
+      </c>
+      <c r="F56">
+        <v>0.04052757233394841</v>
+      </c>
+      <c r="G56">
+        <v>0.0600765835823372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.000963813268851906</v>
+        <v>0.0003341120887670653</v>
       </c>
       <c r="C57">
-        <v>-0.001125933007306665</v>
+        <v>0.0008403641241182041</v>
       </c>
       <c r="D57">
-        <v>0.0167454325468236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01215651898190061</v>
+      </c>
+      <c r="E57">
+        <v>0.008975614300271679</v>
+      </c>
+      <c r="F57">
+        <v>0.005775907761101317</v>
+      </c>
+      <c r="G57">
+        <v>0.003121931153888716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06099890998319498</v>
+        <v>0.02814412475292013</v>
       </c>
       <c r="C58">
-        <v>-0.02134059306623327</v>
+        <v>0.0348773519234561</v>
       </c>
       <c r="D58">
-        <v>0.7311587674738711</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4031990910111151</v>
+      </c>
+      <c r="E58">
+        <v>0.6621106925416679</v>
+      </c>
+      <c r="F58">
+        <v>-0.5501042955604701</v>
+      </c>
+      <c r="G58">
+        <v>-0.07309080511027856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1297814014964253</v>
+        <v>0.1454297498297412</v>
       </c>
       <c r="C59">
-        <v>0.2010802217271809</v>
+        <v>-0.1861269238191642</v>
       </c>
       <c r="D59">
-        <v>0.02211954259918053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03033294962794255</v>
+      </c>
+      <c r="E59">
+        <v>0.02858831979006598</v>
+      </c>
+      <c r="F59">
+        <v>0.02104558473046335</v>
+      </c>
+      <c r="G59">
+        <v>-0.02883853468905477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3116173596380455</v>
+        <v>0.2832230346688635</v>
       </c>
       <c r="C60">
-        <v>-0.08261213605763551</v>
+        <v>0.09828615787674758</v>
       </c>
       <c r="D60">
-        <v>0.1196474403860973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2267323362775637</v>
+      </c>
+      <c r="E60">
+        <v>-0.2639580543984023</v>
+      </c>
+      <c r="F60">
+        <v>-0.08778264865289871</v>
+      </c>
+      <c r="G60">
+        <v>0.04226863237563656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04267070477214856</v>
+        <v>0.04073391740966802</v>
       </c>
       <c r="C61">
-        <v>-0.06506496829484243</v>
+        <v>0.06272662607196955</v>
       </c>
       <c r="D61">
-        <v>0.01661696655740543</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04462157633131964</v>
+      </c>
+      <c r="E61">
+        <v>0.03854558565572111</v>
+      </c>
+      <c r="F61">
+        <v>0.07665580400554493</v>
+      </c>
+      <c r="G61">
+        <v>0.01393917297969434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01605984097045587</v>
+        <v>0.01495078248381228</v>
       </c>
       <c r="C63">
-        <v>-0.035502580545498</v>
+        <v>0.03234959727575851</v>
       </c>
       <c r="D63">
-        <v>-0.006853952146274093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02093102682781853</v>
+      </c>
+      <c r="E63">
+        <v>0.04970782950146332</v>
+      </c>
+      <c r="F63">
+        <v>0.06929502089689626</v>
+      </c>
+      <c r="G63">
+        <v>0.02999303604276294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04745567494041751</v>
+        <v>0.05557883410448689</v>
       </c>
       <c r="C64">
-        <v>-0.04410611583626844</v>
+        <v>0.05572526045566405</v>
       </c>
       <c r="D64">
-        <v>0.0006832604179738283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005419854174507263</v>
+      </c>
+      <c r="E64">
+        <v>0.03124276042315916</v>
+      </c>
+      <c r="F64">
+        <v>0.08200952184116396</v>
+      </c>
+      <c r="G64">
+        <v>0.01214127736501277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0895618920360735</v>
+        <v>0.06920838298620463</v>
       </c>
       <c r="C65">
-        <v>-0.02932269488431386</v>
+        <v>0.03281967999606418</v>
       </c>
       <c r="D65">
-        <v>0.04915129709458325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08365168190115031</v>
+      </c>
+      <c r="E65">
+        <v>0.04422720862540581</v>
+      </c>
+      <c r="F65">
+        <v>0.008459923146310862</v>
+      </c>
+      <c r="G65">
+        <v>0.002110533529868166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06450007393820192</v>
+        <v>0.05199516154752398</v>
       </c>
       <c r="C66">
-        <v>-0.1015035425668802</v>
+        <v>0.09046965513775147</v>
       </c>
       <c r="D66">
-        <v>0.04340177603228835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07965903720406636</v>
+      </c>
+      <c r="E66">
+        <v>0.04258966265238627</v>
+      </c>
+      <c r="F66">
+        <v>0.08843766794719148</v>
+      </c>
+      <c r="G66">
+        <v>0.005663150874169669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05327803942835676</v>
+        <v>0.04589641702230002</v>
       </c>
       <c r="C67">
-        <v>-0.03229768553134218</v>
+        <v>0.03184988615226058</v>
       </c>
       <c r="D67">
-        <v>-0.008813992988202514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01265907318786738</v>
+      </c>
+      <c r="E67">
+        <v>0.02623349101937916</v>
+      </c>
+      <c r="F67">
+        <v>0.05156942064713332</v>
+      </c>
+      <c r="G67">
+        <v>0.01275431238086803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1146595972151837</v>
+        <v>0.1509062228681353</v>
       </c>
       <c r="C68">
-        <v>0.2884600611054272</v>
+        <v>-0.2507755718957592</v>
       </c>
       <c r="D68">
-        <v>-0.0079041607919287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02060616076471967</v>
+      </c>
+      <c r="E68">
+        <v>0.04236837018200811</v>
+      </c>
+      <c r="F68">
+        <v>0.0142731200784415</v>
+      </c>
+      <c r="G68">
+        <v>0.01057859393133558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09076069328527918</v>
+        <v>0.08664781156407166</v>
       </c>
       <c r="C69">
-        <v>-0.06388477015829458</v>
+        <v>0.08625347078986785</v>
       </c>
       <c r="D69">
-        <v>-0.03975302071489516</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01053165689204942</v>
+      </c>
+      <c r="E69">
+        <v>0.04861062460430701</v>
+      </c>
+      <c r="F69">
+        <v>0.08929199200518229</v>
+      </c>
+      <c r="G69">
+        <v>0.03026854855045678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.108836288287871</v>
+        <v>0.1430419273444579</v>
       </c>
       <c r="C71">
-        <v>0.2489091337254473</v>
+        <v>-0.2338545240550046</v>
       </c>
       <c r="D71">
-        <v>0.02173465196742665</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.009796880644444547</v>
+      </c>
+      <c r="E71">
+        <v>0.06646009791429271</v>
+      </c>
+      <c r="F71">
+        <v>0.05422919429923274</v>
+      </c>
+      <c r="G71">
+        <v>0.03583634799412933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09003795731601366</v>
+        <v>0.09703884916182402</v>
       </c>
       <c r="C72">
-        <v>-0.04646012406891772</v>
+        <v>0.05523756864253937</v>
       </c>
       <c r="D72">
-        <v>0.0009115339380466725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0241614134056933</v>
+      </c>
+      <c r="E72">
+        <v>0.02530361569280852</v>
+      </c>
+      <c r="F72">
+        <v>0.07268475921965878</v>
+      </c>
+      <c r="G72">
+        <v>0.0295905938238746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4208347706874485</v>
+        <v>0.3475116991992508</v>
       </c>
       <c r="C73">
-        <v>-0.06152614749279795</v>
+        <v>0.08211883390721703</v>
       </c>
       <c r="D73">
-        <v>0.3138945011994331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4745370155845768</v>
+      </c>
+      <c r="E73">
+        <v>-0.4705896090376122</v>
+      </c>
+      <c r="F73">
+        <v>-0.2457941587491863</v>
+      </c>
+      <c r="G73">
+        <v>0.09621299013344112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1113684382939028</v>
+        <v>0.1106715538786475</v>
       </c>
       <c r="C74">
-        <v>-0.09760666754379836</v>
+        <v>0.09907361315771247</v>
       </c>
       <c r="D74">
-        <v>-0.02456769652569073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03336217916070239</v>
+      </c>
+      <c r="E74">
+        <v>0.06459041465456798</v>
+      </c>
+      <c r="F74">
+        <v>0.04613413999897513</v>
+      </c>
+      <c r="G74">
+        <v>0.07556629267344048</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.252283872030143</v>
+        <v>0.2562455444361065</v>
       </c>
       <c r="C75">
-        <v>-0.1012487821696703</v>
+        <v>0.1331436668460953</v>
       </c>
       <c r="D75">
-        <v>-0.08797100743449332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1334811879904656</v>
+      </c>
+      <c r="E75">
+        <v>0.06711419159277315</v>
+      </c>
+      <c r="F75">
+        <v>0.005826290059984252</v>
+      </c>
+      <c r="G75">
+        <v>0.07583597381508367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.114841558840458</v>
+        <v>0.1279705685925745</v>
       </c>
       <c r="C76">
-        <v>-0.08891812616064945</v>
+        <v>0.1006167311311387</v>
       </c>
       <c r="D76">
-        <v>-0.04194295926673478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06105651116866766</v>
+      </c>
+      <c r="E76">
+        <v>0.07086237915818969</v>
+      </c>
+      <c r="F76">
+        <v>0.06159070268278739</v>
+      </c>
+      <c r="G76">
+        <v>0.06396204395707915</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07765157593192087</v>
+        <v>0.06260825561448355</v>
       </c>
       <c r="C77">
-        <v>-0.05612048258501964</v>
+        <v>0.07182153135100872</v>
       </c>
       <c r="D77">
-        <v>0.06439025403843955</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06417202442777904</v>
+      </c>
+      <c r="E77">
+        <v>0.09422025800286898</v>
+      </c>
+      <c r="F77">
+        <v>0.1106021538607165</v>
+      </c>
+      <c r="G77">
+        <v>-0.1325497073330438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04914905038922689</v>
+        <v>0.04347617881081327</v>
       </c>
       <c r="C78">
-        <v>-0.04289069977560319</v>
+        <v>0.05692268862584421</v>
       </c>
       <c r="D78">
-        <v>0.02838986846554583</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07046860343622519</v>
+      </c>
+      <c r="E78">
+        <v>0.04788789786673669</v>
+      </c>
+      <c r="F78">
+        <v>0.09453930547743811</v>
+      </c>
+      <c r="G78">
+        <v>0.00633328219081012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02545798843092962</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0387242102193629</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06319388999231734</v>
+      </c>
+      <c r="E79">
+        <v>0.05265069839460691</v>
+      </c>
+      <c r="F79">
+        <v>0.03285426235396897</v>
+      </c>
+      <c r="G79">
+        <v>0.06789984087758241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04697937248697537</v>
+        <v>0.0347387033047856</v>
       </c>
       <c r="C80">
-        <v>-0.05145186241416257</v>
+        <v>0.05455419403750349</v>
       </c>
       <c r="D80">
-        <v>0.0330177517320841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04450569566895797</v>
+      </c>
+      <c r="E80">
+        <v>0.01669797293630246</v>
+      </c>
+      <c r="F80">
+        <v>0.0348382329949877</v>
+      </c>
+      <c r="G80">
+        <v>-0.04630315465727413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1437543734942819</v>
+        <v>0.1404329863701528</v>
       </c>
       <c r="C81">
-        <v>-0.06991575236708071</v>
+        <v>0.09555430938946052</v>
       </c>
       <c r="D81">
-        <v>-0.06420504025849309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1025010622028423</v>
+      </c>
+      <c r="E81">
+        <v>0.07934460958224608</v>
+      </c>
+      <c r="F81">
+        <v>0.005376481859321681</v>
+      </c>
+      <c r="G81">
+        <v>0.05534477040236638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1600179139827586</v>
+        <v>0.2014623838319448</v>
       </c>
       <c r="C82">
-        <v>-0.06125415211238717</v>
+        <v>0.138428961048378</v>
       </c>
       <c r="D82">
-        <v>-0.1554211029479264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2373358180981562</v>
+      </c>
+      <c r="E82">
+        <v>-0.001165947904280163</v>
+      </c>
+      <c r="F82">
+        <v>0.09375529571247028</v>
+      </c>
+      <c r="G82">
+        <v>0.04467350399868273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03865965034458631</v>
+        <v>0.02789815685042258</v>
       </c>
       <c r="C83">
-        <v>-0.02357646386018421</v>
+        <v>0.04201141899490676</v>
       </c>
       <c r="D83">
-        <v>0.0338322156564799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03405773512326557</v>
+      </c>
+      <c r="E83">
+        <v>0.02258392759827483</v>
+      </c>
+      <c r="F83">
+        <v>0.04245588262337039</v>
+      </c>
+      <c r="G83">
+        <v>-0.02042263306527948</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2215634725020841</v>
+        <v>0.2036177492681484</v>
       </c>
       <c r="C85">
-        <v>-0.09916251845581621</v>
+        <v>0.1197231850950877</v>
       </c>
       <c r="D85">
-        <v>-0.116963997378011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09973723199806366</v>
+      </c>
+      <c r="E85">
+        <v>-0.005262546149098767</v>
+      </c>
+      <c r="F85">
+        <v>-0.01915403271660449</v>
+      </c>
+      <c r="G85">
+        <v>0.1282767157889169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01072617190556233</v>
+        <v>0.01114067398203296</v>
       </c>
       <c r="C86">
-        <v>-0.03697334693021309</v>
+        <v>0.03182421792723405</v>
       </c>
       <c r="D86">
-        <v>0.04673343304207386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0656494218563604</v>
+      </c>
+      <c r="E86">
+        <v>0.06584643286543063</v>
+      </c>
+      <c r="F86">
+        <v>0.1235759529488505</v>
+      </c>
+      <c r="G86">
+        <v>-0.008683162467588792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02175037710020657</v>
+        <v>0.02169964712518209</v>
       </c>
       <c r="C87">
-        <v>-0.02182248063920443</v>
+        <v>0.02185772943066771</v>
       </c>
       <c r="D87">
-        <v>0.09849319676172652</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08785158590916635</v>
+      </c>
+      <c r="E87">
+        <v>0.1123646432290698</v>
+      </c>
+      <c r="F87">
+        <v>0.07397728589428333</v>
+      </c>
+      <c r="G87">
+        <v>-0.03506259226440803</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1053377923511838</v>
+        <v>0.09161201311198769</v>
       </c>
       <c r="C88">
-        <v>-0.07058903059154638</v>
+        <v>0.06263513111793885</v>
       </c>
       <c r="D88">
-        <v>-0.03141268082721108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00676468169373794</v>
+      </c>
+      <c r="E88">
+        <v>0.04288272114867647</v>
+      </c>
+      <c r="F88">
+        <v>0.07133997793504342</v>
+      </c>
+      <c r="G88">
+        <v>-0.02758218901984561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1744160437297081</v>
+        <v>0.2220955940117775</v>
       </c>
       <c r="C89">
-        <v>0.3845844723429588</v>
+        <v>-0.3788729635272817</v>
       </c>
       <c r="D89">
-        <v>-0.01120161426397409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.005886963957370931</v>
+      </c>
+      <c r="E89">
+        <v>0.06280738099297276</v>
+      </c>
+      <c r="F89">
+        <v>0.07613891277827436</v>
+      </c>
+      <c r="G89">
+        <v>-0.06199873957923344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.168658994617308</v>
+        <v>0.2013536623693074</v>
       </c>
       <c r="C90">
-        <v>0.3431911811973338</v>
+        <v>-0.313366320650622</v>
       </c>
       <c r="D90">
-        <v>-0.02136136893718557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01629717414139621</v>
+      </c>
+      <c r="E90">
+        <v>0.07138300122914522</v>
+      </c>
+      <c r="F90">
+        <v>0.03917135784027578</v>
+      </c>
+      <c r="G90">
+        <v>-0.01110498082638192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1919285461700783</v>
+        <v>0.1858152147646568</v>
       </c>
       <c r="C91">
-        <v>-0.119173169063822</v>
+        <v>0.1408788858074707</v>
       </c>
       <c r="D91">
-        <v>-0.08358897741231229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1117442764067582</v>
+      </c>
+      <c r="E91">
+        <v>0.05930377043356975</v>
+      </c>
+      <c r="F91">
+        <v>0.03024740748803014</v>
+      </c>
+      <c r="G91">
+        <v>0.06107817195508307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1608249824383926</v>
+        <v>0.1833827697565387</v>
       </c>
       <c r="C92">
-        <v>0.2917428650711675</v>
+        <v>-0.2840950610031918</v>
       </c>
       <c r="D92">
-        <v>-0.01143970273116643</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.008878705155769837</v>
+      </c>
+      <c r="E92">
+        <v>0.0697834379753441</v>
+      </c>
+      <c r="F92">
+        <v>0.07969371642115686</v>
+      </c>
+      <c r="G92">
+        <v>-0.005068627910156753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.192158257293827</v>
+        <v>0.2257906768401476</v>
       </c>
       <c r="C93">
-        <v>0.3462214606203214</v>
+        <v>-0.3192852502606942</v>
       </c>
       <c r="D93">
-        <v>-0.01580559398043578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004118110546392086</v>
+      </c>
+      <c r="E93">
+        <v>0.05058270141613415</v>
+      </c>
+      <c r="F93">
+        <v>0.03991524015914693</v>
+      </c>
+      <c r="G93">
+        <v>0.02909204062289861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3386548290583954</v>
+        <v>0.3413906757094108</v>
       </c>
       <c r="C94">
-        <v>-0.1349112704592581</v>
+        <v>0.1824959042247196</v>
       </c>
       <c r="D94">
-        <v>-0.4344232795283672</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4953100707684116</v>
+      </c>
+      <c r="E94">
+        <v>0.04169606274317941</v>
+      </c>
+      <c r="F94">
+        <v>-0.4351955734028758</v>
+      </c>
+      <c r="G94">
+        <v>-0.3416573557389963</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1125531426783409</v>
+        <v>0.08550150041255783</v>
       </c>
       <c r="C95">
-        <v>-0.07936565384576326</v>
+        <v>0.06846001078838766</v>
       </c>
       <c r="D95">
-        <v>0.1104358662677631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1708391204677066</v>
+      </c>
+      <c r="E95">
+        <v>-0.09544596519231777</v>
+      </c>
+      <c r="F95">
+        <v>0.2378632134377653</v>
+      </c>
+      <c r="G95">
+        <v>-0.860267819624685</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1968086673984822</v>
+        <v>0.1878594059476084</v>
       </c>
       <c r="C98">
-        <v>-0.02324337120337954</v>
+        <v>0.0451241906884745</v>
       </c>
       <c r="D98">
-        <v>0.1227169529381236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1882516491617756</v>
+      </c>
+      <c r="E98">
+        <v>-0.1479700955881955</v>
+      </c>
+      <c r="F98">
+        <v>-0.03391912264419781</v>
+      </c>
+      <c r="G98">
+        <v>0.1013686588010727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008947917055387625</v>
+        <v>0.005796185806473487</v>
       </c>
       <c r="C101">
-        <v>-0.02834567683033918</v>
+        <v>0.02734243926983764</v>
       </c>
       <c r="D101">
-        <v>-0.01908267939096539</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0184203430659405</v>
+      </c>
+      <c r="E101">
+        <v>0.0407497103760311</v>
+      </c>
+      <c r="F101">
+        <v>0.08824512840606485</v>
+      </c>
+      <c r="G101">
+        <v>0.006967661362808198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1221534156481238</v>
+        <v>0.123909137230392</v>
       </c>
       <c r="C102">
-        <v>-0.0719718876591625</v>
+        <v>0.1004736471760854</v>
       </c>
       <c r="D102">
-        <v>-0.02793760392258655</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04841409234296098</v>
+      </c>
+      <c r="E102">
+        <v>-0.007455811243728922</v>
+      </c>
+      <c r="F102">
+        <v>0.0426985207874504</v>
+      </c>
+      <c r="G102">
+        <v>0.02406972076094555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
